--- a/ph/prest/cpc_data.xlsx
+++ b/ph/prest/cpc_data.xlsx
@@ -16,21 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Rusizi District</t>
-  </si>
-  <si>
-    <t>Kamembe Sector</t>
-  </si>
-  <si>
-    <t>Gihundwe Health Center</t>
-  </si>
-  <si>
-    <t>Tel: (250)7 86 28 24 20</t>
-  </si>
-  <si>
-    <t>Email: centredesante.gihundwe@yahoo.fr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+  <si>
+    <t>Ruhango District</t>
+  </si>
+  <si>
+    <t>Kigoma Sector</t>
+  </si>
+  <si>
+    <t>Kigoma Health Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tel: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
   </si>
   <si>
     <t>Anti-Malaria unpaid Distribution</t>
@@ -76,6 +76,531 @@
   </si>
   <si>
     <t>quinine inj. 300 mg/2ml</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>DUSABIMANA Felecite</t>
+  </si>
+  <si>
+    <t>25 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199370095531042 </t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>BYUKUSENGE ESTHER</t>
+  </si>
+  <si>
+    <t>41 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119770058989020 </t>
+  </si>
+  <si>
+    <t>2018-09-04</t>
+  </si>
+  <si>
+    <t>NYIRABIZEYIMANA BONIFRIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199370095650292 </t>
+  </si>
+  <si>
+    <t>MICOMYIZA ALIER</t>
+  </si>
+  <si>
+    <t>6 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 </t>
+  </si>
+  <si>
+    <t>NIBISHAKA EDINE</t>
+  </si>
+  <si>
+    <t>17 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200170029839099 </t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>KIRABO JOSIANNE</t>
+  </si>
+  <si>
+    <t>7 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 </t>
+  </si>
+  <si>
+    <t>UWIKUNDA ANITHA</t>
+  </si>
+  <si>
+    <t>19 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199970173555066 </t>
+  </si>
+  <si>
+    <t>MUSHIMIYIMANA CHADIA</t>
+  </si>
+  <si>
+    <t>27 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11978880049718121 </t>
+  </si>
+  <si>
+    <t>BYUKUSENGE FAUSTIN</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>IRANKUNDA YVONNE</t>
+  </si>
+  <si>
+    <t>28 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199070217400053 </t>
+  </si>
+  <si>
+    <t>UWIHOZO JEANNINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1993 </t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>NIYONZIMA VALENS</t>
+  </si>
+  <si>
+    <t>21 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199780009659018 </t>
+  </si>
+  <si>
+    <t>Gwiza Irumva Cedrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 </t>
+  </si>
+  <si>
+    <t>2018-09-08</t>
+  </si>
+  <si>
+    <t>HABANABASHAKA ATHANASE</t>
+  </si>
+  <si>
+    <t>34 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198480198944002 </t>
+  </si>
+  <si>
+    <t>NDIBWIRENDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199770185351021 </t>
+  </si>
+  <si>
+    <t>Sibomana Jean Claude</t>
+  </si>
+  <si>
+    <t>43 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 </t>
+  </si>
+  <si>
+    <t>2018-09-09</t>
+  </si>
+  <si>
+    <t>Sibomana Valens</t>
+  </si>
+  <si>
+    <t>20 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199880009928029 </t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>MUHIRWA THEODORE</t>
+  </si>
+  <si>
+    <t>26 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199280021212088 </t>
+  </si>
+  <si>
+    <t>2018-09-12</t>
+  </si>
+  <si>
+    <t>Uwimana Hadidja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200070061756074 </t>
+  </si>
+  <si>
+    <t>2018-09-13</t>
+  </si>
+  <si>
+    <t>IRAMBONA EMMANUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199380102068067 </t>
+  </si>
+  <si>
+    <t>2018-09-14</t>
+  </si>
+  <si>
+    <t>NIYONKURU SIMPLICE</t>
+  </si>
+  <si>
+    <t>10 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008 </t>
+  </si>
+  <si>
+    <t>IRATWIYERETSE MANZI MERCI</t>
+  </si>
+  <si>
+    <t>5 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013 </t>
+  </si>
+  <si>
+    <t>AYINGENYE ARAFA</t>
+  </si>
+  <si>
+    <t>45 month</t>
+  </si>
+  <si>
+    <t>NISINGIZWE BERTIN</t>
+  </si>
+  <si>
+    <t>8 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010 </t>
+  </si>
+  <si>
+    <t>NIYIGENA ONESPHORE</t>
+  </si>
+  <si>
+    <t>2018-09-15</t>
+  </si>
+  <si>
+    <t>Nyirahabimana Marie</t>
+  </si>
+  <si>
+    <t>86 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1193270003766049 </t>
+  </si>
+  <si>
+    <t>NYIRANDAYISENGA OLIVE</t>
+  </si>
+  <si>
+    <t>29 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198970070161092 </t>
+  </si>
+  <si>
+    <t>UWAYIKORERA YVAN FLANK</t>
+  </si>
+  <si>
+    <t>20 month</t>
+  </si>
+  <si>
+    <t>2018-09-16</t>
+  </si>
+  <si>
+    <t>Bizimana Pacifique</t>
+  </si>
+  <si>
+    <t>2018-09-18</t>
+  </si>
+  <si>
+    <t>IYAMUREMYE VEDASTE</t>
+  </si>
+  <si>
+    <t>59 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1195980024026097 </t>
+  </si>
+  <si>
+    <t>MURIGIRWA JOYCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199770185590150 </t>
+  </si>
+  <si>
+    <t>UWINEZA THANIA</t>
+  </si>
+  <si>
+    <t>2018-09-19</t>
+  </si>
+  <si>
+    <t>MUHAWENAYO JEAN DAMASCENE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199280169179012 </t>
+  </si>
+  <si>
+    <t>AYINGENEYE JACQUELINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199970106758038 </t>
+  </si>
+  <si>
+    <t>2018-09-20</t>
+  </si>
+  <si>
+    <t>NZAYIKORERA MANASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200180072423053 </t>
+  </si>
+  <si>
+    <t>2018-09-21</t>
+  </si>
+  <si>
+    <t>NIYIBIZI SIMON</t>
+  </si>
+  <si>
+    <t>75 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1194380005183095 </t>
+  </si>
+  <si>
+    <t>MUKAMASABO COLETTE</t>
+  </si>
+  <si>
+    <t>57 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1196170019427041 </t>
+  </si>
+  <si>
+    <t>MUKAYISENGA JEANNETTE</t>
+  </si>
+  <si>
+    <t>30 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198870062725016 </t>
+  </si>
+  <si>
+    <t>2018-09-22</t>
+  </si>
+  <si>
+    <t>NGENDAHAYO FERECIEN</t>
+  </si>
+  <si>
+    <t>24 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199480037997071 </t>
+  </si>
+  <si>
+    <t>HAKIZIMANA JEAN DEDIEU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1197980057784071 </t>
+  </si>
+  <si>
+    <t>2018-09-23</t>
+  </si>
+  <si>
+    <t>Hirwa Rambert Chaffi</t>
+  </si>
+  <si>
+    <t>29 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 </t>
+  </si>
+  <si>
+    <t>MUKAMUGEMA BEATRICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198470203630028 </t>
+  </si>
+  <si>
+    <t>Sibomana Christian</t>
+  </si>
+  <si>
+    <t>57 month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014 </t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>TUYIRAGIZE EMMANUEL</t>
+  </si>
+  <si>
+    <t>12 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006 </t>
+  </si>
+  <si>
+    <t>NIYOMURINZI ANGE</t>
+  </si>
+  <si>
+    <t>Mukandayisenga Tharcie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199470186799030 </t>
+  </si>
+  <si>
+    <t>2018-09-27</t>
+  </si>
+  <si>
+    <t>NYIRABAVANDIMWE Jeannette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199080007472047 </t>
+  </si>
+  <si>
+    <t>BAYIZERE JEANNETTE</t>
+  </si>
+  <si>
+    <t>23 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199570163953077 </t>
+  </si>
+  <si>
+    <t>UWASE RACHEL</t>
+  </si>
+  <si>
+    <t>9 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009 </t>
+  </si>
+  <si>
+    <t>AHISHAKIYE MELANIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199370095000046 </t>
+  </si>
+  <si>
+    <t>2018-09-28</t>
+  </si>
+  <si>
+    <t>Kajyibwami Silas</t>
+  </si>
+  <si>
+    <t>66 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1195280017465032 </t>
+  </si>
+  <si>
+    <t>NIYIGENA ALICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199370022629032 </t>
+  </si>
+  <si>
+    <t>NDICUNGUYE ISHIMWE HOPPE</t>
+  </si>
+  <si>
+    <t>21 month</t>
+  </si>
+  <si>
+    <t>NDAHAYO SILAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1200280040788029 </t>
+  </si>
+  <si>
+    <t>HABIMANA DOMINIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198880062842014 </t>
+  </si>
+  <si>
+    <t>2018-09-29</t>
+  </si>
+  <si>
+    <t>NIYOMURINZI ESDRAS</t>
+  </si>
+  <si>
+    <t>16 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002 </t>
+  </si>
+  <si>
+    <t>MUKANDAYISENGA VERENTINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199170049545093 </t>
+  </si>
+  <si>
+    <t>TUYISHIME Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199980134882056 </t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>NZEYIMANA EMMANWEL</t>
+  </si>
+  <si>
+    <t>33 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1198570067079046 </t>
+  </si>
+  <si>
+    <t>Ishimwe Aime Joycie</t>
+  </si>
+  <si>
+    <t>36 month</t>
+  </si>
+  <si>
+    <t>Umwariwabo Adeline</t>
+  </si>
+  <si>
+    <t>13 yrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005 </t>
+  </si>
+  <si>
+    <t>ISHIMWE FREDY</t>
   </si>
 </sst>
 </file>
@@ -461,19 +986,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.998779" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.997314" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="2.999268" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.996826" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3.999023" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.996826" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="25.993652" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.997803" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.995361" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.997803" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.994629" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="3.999023" bestFit="true" customWidth="true" style="0"/>
@@ -610,33 +1135,1887 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
+        <v>42</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>1</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7">
+        <v>7</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="7">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7">
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="7">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7">
+        <v>1</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="7">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="7">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="7">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="7">
+        <v>23</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="7">
+        <v>24</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="7">
+        <v>25</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7">
+        <v>1</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="10"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="7">
+        <v>26</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="10"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="7">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="10"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="7">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="7">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7">
+        <v>1</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="10"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="7">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="7">
+        <v>30</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="7">
+        <v>31</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="10"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="7">
+        <v>32</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="7">
+        <v>33</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="7">
+        <v>34</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7">
+        <v>1</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="7">
+        <v>35</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="7">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="10"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="7">
+        <v>36</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="7">
+        <v>37</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F45" s="7">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="7">
+        <v>38</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="7">
+        <v>39</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7">
+        <v>1</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="7">
+        <v>40</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="7">
+        <v>41</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="7">
+        <v>2</v>
+      </c>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7">
+        <v>1</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="7">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="7">
+        <v>43</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7">
+        <v>1</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="7">
+        <v>44</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="7">
+        <v>45</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="7">
+        <v>2</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="7">
+        <v>46</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="7">
+        <v>2</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="7">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="7">
+        <v>2</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="7">
+        <v>48</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" s="7">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="7">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="7">
+        <v>2</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="7">
+        <v>50</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="7">
+        <v>51</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="7">
+        <v>52</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="7">
+        <v>53</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="7">
+        <v>2</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7">
+        <v>1</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="7">
+        <v>54</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="7">
+        <v>2</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="7">
+        <v>55</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="7">
+        <v>2</v>
+      </c>
+      <c r="G63" s="7">
+        <v>3</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="7">
+        <v>56</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="7">
+        <v>57</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="7">
+        <v>2</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7">
+        <v>1</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="7">
+        <v>58</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" s="7">
+        <v>59</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F67" s="7">
+        <v>1</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7">
+        <v>1</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="7">
+        <v>60</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7">
+        <v>1</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="7">
+        <v>61</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="7"/>
+      <c r="M69" s="10"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" s="7">
+        <v>62</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="10"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" s="7">
+        <v>63</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7">
+        <v>1</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="7">
+        <v>64</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="4"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8">
+        <v>12</v>
+      </c>
+      <c r="G73" s="8">
+        <v>7</v>
+      </c>
+      <c r="H73" s="8">
+        <v>10</v>
+      </c>
+      <c r="I73" s="8">
+        <v>3</v>
+      </c>
+      <c r="J73" s="8">
+        <v>41</v>
+      </c>
+      <c r="K73" s="8">
+        <v>42</v>
+      </c>
+      <c r="L73" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11"/>
+      <c r="M73" s="11"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -648,7 +3027,7 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A73:E73"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
